--- a/装修.xlsx
+++ b/装修.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kejackz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kejackz/Workspace/github/decorate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ABEA36-2A8A-9744-B6BC-E117CBA68422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F7BC74-DCD5-5D4B-8CA3-BD50C561910F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{E8AEEEA8-E30C-3B47-B61F-0E59E051F1AC}"/>
   </bookViews>
@@ -566,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFABD507-0E26-DB4B-83C3-ED090F5502E9}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -851,7 +851,7 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1117,7 +1117,7 @@
         <v>34200</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1183,12 +1183,6 @@
       </c>
       <c r="E36">
         <v>20000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G37">
-        <f ca="1">SUM(E2:INDIRECT("E"&amp;ROW()))</f>
-        <v>193500</v>
       </c>
     </row>
   </sheetData>
